--- a/Report/test.xlsx
+++ b/Report/test.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\AU\Visual Computing\visual-computing-au\Report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8BC56E-C24F-4F2F-9C7C-FF8A21E48A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,14 +24,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>SIFT</t>
+  </si>
+  <si>
+    <t>AKAZE</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>1.2653</t>
+  </si>
+  <si>
+    <t>2.8425</t>
+  </si>
+  <si>
+    <t>73.0941</t>
+  </si>
+  <si>
+    <t>8.6341</t>
+  </si>
+  <si>
+    <t>92.2921</t>
+  </si>
+  <si>
+    <t>7.3694</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,15 +97,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +446,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <f>SUM(C1:D1)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>64</v>
+      </c>
+      <c r="D2" s="4">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H6" si="0">SUM(C2:D2)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>486</v>
+      </c>
+      <c r="D3" s="4">
+        <v>534</v>
+      </c>
+      <c r="E3" s="4">
+        <v>87</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>496</v>
+      </c>
+      <c r="D4" s="4">
+        <v>312</v>
+      </c>
+      <c r="E4" s="4">
+        <v>109</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>478</v>
+      </c>
+      <c r="D5" s="4">
+        <v>708</v>
+      </c>
+      <c r="E5" s="4">
+        <v>76</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>265</v>
+      </c>
+      <c r="D6" s="4">
+        <v>421</v>
+      </c>
+      <c r="E6" s="4">
+        <v>94</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>